--- a/data/income_statement/3digits/total/463_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/463_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>463-Wholesale of food, beverages and tobacco</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>463-Wholesale of food, beverages and tobacco</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>108820247.72354</v>
+        <v>108821896.49329</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>125624287.92351</v>
+        <v>125633682.93635</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>145990921.86517</v>
+        <v>146585136.72306</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>170011334.77232</v>
+        <v>170958391.2287</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>189637860.36883</v>
+        <v>191186433.14352</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>225315773.15916</v>
+        <v>225996296.51278</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>236610213.31742</v>
+        <v>259773463.57944</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>275118046.93165</v>
+        <v>280780784.17225</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>332655329.36067</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>407899186.7752</v>
+        <v>408710282.3864101</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>496191232.95667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>499918286.6131</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>585637955.6</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>98543902.07073002</v>
+        <v>98545550.84048001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>114388753.73464</v>
+        <v>114398128.28863</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>131246349.24192</v>
+        <v>131839987.97</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>153423105.80547</v>
+        <v>154368784.22723</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>169169272.24708</v>
+        <v>170712519.16129</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>199664442.79269</v>
+        <v>200196591.35624</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>204460811.07244</v>
+        <v>226692428.17448</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>247932205.97415</v>
+        <v>253210760.24914</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>297051116.77077</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>353831979.5904499</v>
+        <v>354567228.3772801</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>421675383.96823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>424956832.10486</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>494313678.314</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7652334.85209</v>
@@ -1034,193 +950,218 @@
         <v>8402684.79308</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>11586512.23528</v>
+        <v>11586956.64837</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>12838766.28476</v>
+        <v>12839594.09118</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>15938612.84146</v>
+        <v>15940613.62115</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>21096528.8342</v>
+        <v>21216088.98607</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>27103441.2846</v>
+        <v>27865683.6229</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>21352343.9389</v>
+        <v>21696603.98771</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>28645794.65794</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>46034414.8779</v>
+        <v>46107098.13347</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>64605695.89133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>64981505.26189</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>80230988.986</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2624010.80072</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2832849.39579</v>
+        <v>2832869.85464</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3158060.38797</v>
+        <v>3158192.104689999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3749462.68209</v>
+        <v>3750012.91029</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4529975.28029</v>
+        <v>4533300.36108</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4554801.53227</v>
+        <v>4583616.17047</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5045960.960379999</v>
+        <v>5215351.782059999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5833497.0186</v>
+        <v>5873419.9354</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>6958417.93196</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8032792.30685</v>
+        <v>8035955.875659999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9910153.097110001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9979949.24635</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11093288.3</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6965200.500279999</v>
+        <v>6965204.54028</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7595741.76367</v>
+        <v>7595798.50948</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8735214.12401</v>
+        <v>8834760.57825</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10217630.55592</v>
+        <v>10356468.28162</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11291023.86294</v>
+        <v>11479035.38708</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12998950.97067</v>
+        <v>13012539.33922</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14984357.02149</v>
+        <v>15166361.06426</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>17501839.8183</v>
+        <v>17849551.7658</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>19266649.82994</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>24442029.3013</v>
+        <v>24461186.63407</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>30898757.59912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>30928265.33466</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>35346483.165</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2161881.66106</v>
+        <v>2161885.70106</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2327087.56553</v>
+        <v>2327144.31134</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2676753.99766</v>
+        <v>2680111.67474</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3042133.349609999</v>
+        <v>3046646.60513</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3299193.69994</v>
+        <v>3304771.38002</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3631263.76195</v>
+        <v>3635618.97002</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4173850.226</v>
+        <v>4259467.090109999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5714499.040369999</v>
+        <v>5770733.94697</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>5044777.26812</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7195541.43691</v>
+        <v>7212728.17679</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>9152196.784289999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9172179.989370001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>12162887.866</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4465806.690909999</v>
+        <v>4465806.69091</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>4864357.76887</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5702936.431089999</v>
+        <v>5799125.20825</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6663309.58867</v>
+        <v>6797634.058850001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7359469.236880001</v>
+        <v>7541826.7474</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8531263.26706</v>
+        <v>8540020.10548</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9767554.325189998</v>
+        <v>9862316.768860001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10713223.95053</v>
+        <v>10988440.41538</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>12785039.07792</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>15483966.2826</v>
+        <v>15485776.62122</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>19790170.324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19797775.42819</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>20465479.42</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>337512.14831</v>
@@ -1232,229 +1173,259 @@
         <v>355523.69526</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>512187.6176400001</v>
+        <v>512187.61764</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>632360.9261199998</v>
+        <v>632437.25966</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>836423.9416600001</v>
+        <v>836900.2637199999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1042952.4703</v>
+        <v>1044577.20529</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1074116.8274</v>
+        <v>1090377.40345</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1436833.4839</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1762521.58179</v>
+        <v>1762681.83606</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1956390.49083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1958309.9171</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2718115.879</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>101855047.22326</v>
+        <v>101856691.95301</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>118028546.15984</v>
+        <v>118037884.42687</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>137255707.74116</v>
+        <v>137750376.14481</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>159793704.2164</v>
+        <v>160601922.94708</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>178346836.50589</v>
+        <v>179707397.75644</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>212316822.18849</v>
+        <v>212983757.17356</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>221625856.29593</v>
+        <v>244607102.51518</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>257616207.11335</v>
+        <v>262931232.40645</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>313388679.53073</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>383457157.4739</v>
+        <v>384249095.75234</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>465292475.3575499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>468990021.2784399</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>550291472.4349999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>91377010.90815</v>
+        <v>91378580.46402</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>106328908.27844</v>
+        <v>106336811.36831</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>123772142.01047</v>
+        <v>124182348.52944</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>144834242.68106</v>
+        <v>145504332.26608</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>161583152.57599</v>
+        <v>162720339.73901</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>193451902.97401</v>
+        <v>194039209.12681</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>201572535.97382</v>
+        <v>223293894.8378</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>235328519.83219</v>
+        <v>239358693.90729</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>285611611.38261</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>348894227.93131</v>
+        <v>349647606.9164</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>423136480.87218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>426589817.55967</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>503504964.688</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4261844.98438</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8955204.48711</v>
+        <v>8960503.63078</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5520613.47124</v>
+        <v>5526613.665159999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5885777.33737</v>
+        <v>5897074.67664</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6497547.73099</v>
+        <v>6510570.864139999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9067635.473800002</v>
+        <v>9119688.037180001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9314796.057639999</v>
+        <v>9601748.996929999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11372796.34477</v>
+        <v>11538238.64256</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>13242639.33241</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>18327477.3086</v>
+        <v>18340267.36644</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>25272931.35341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>25521765.15698</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>37653592.302</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>86257850.0616</v>
+        <v>86259419.61747</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>96403190.75211999</v>
+        <v>96405543.67797001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>116758173.90431</v>
+        <v>117162067.75432</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>137475391.38237</v>
+        <v>138133797.37876</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>153034045.30955</v>
+        <v>154153269.30604</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>182334582.73739</v>
+        <v>182865942.63344</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>189960929.55402</v>
+        <v>211354478.15455</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>221641812.53376</v>
+        <v>225422329.34579</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>268879454.49364</v>
+        <v>268879454.4936399</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>326089974.60167</v>
+        <v>326826017.22222</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>392207529.45424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>395366079.27487</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>461729254.681</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>682827.4215599999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>772209.9971699999</v>
+        <v>772461.01752</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1072145.38412</v>
+        <v>1072457.85916</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1030815.45913</v>
+        <v>1031201.70849</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1137721.87557</v>
+        <v>1142620.3193</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1329012.23229</v>
+        <v>1332621.88508</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1475542.81237</v>
+        <v>1496334.71735</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1577093.38818</v>
+        <v>1586528.44979</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2084625.15794</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2779209.40173</v>
+        <v>2782605.94667</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3161567.18346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3203235.33562</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3277750.578</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>174488.44061</v>
@@ -1469,121 +1440,136 @@
         <v>442258.50219</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>913837.6598800001</v>
+        <v>913879.2495299999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>720672.53053</v>
+        <v>720956.5711099999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>821267.54979</v>
+        <v>841332.96897</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>736817.56548</v>
+        <v>811597.46915</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1404892.39862</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1697566.61931</v>
+        <v>1698716.38107</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2494452.88107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2498737.7922</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>844367.127</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>10478036.31511</v>
+        <v>10478111.48899</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>11699637.8814</v>
+        <v>11701073.05856</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>13483565.73069</v>
+        <v>13568027.61537</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>14959461.53534</v>
+        <v>15097590.681</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>16763683.9299</v>
+        <v>16987058.01743</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>18864919.21448</v>
+        <v>18944548.04675</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>20053320.32211</v>
+        <v>21313207.67738</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>22287687.28116</v>
+        <v>23572538.49916</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>27777068.14811999</v>
+        <v>27777068.14812</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>34562929.54259001</v>
+        <v>34601488.83594</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>42155994.48537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>42400203.71877</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>46786507.747</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8753613.113670001</v>
+        <v>8753645.85626</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9704419.427170001</v>
+        <v>9705646.64182</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>11154924.45042</v>
+        <v>11246771.47587</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>12704766.8867</v>
+        <v>12819641.8493</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>13819918.30695</v>
+        <v>13970821.2312</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>15876073.84511</v>
+        <v>15949143.14005</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>16850583.504</v>
+        <v>17779598.55285</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>18974712.83327</v>
+        <v>19643081.29438</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>22502287.02233</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>27555888.85688</v>
+        <v>27625622.84882</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>32915913.90043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>33155421.46023</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>38007634.026</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>30104.47689000001</v>
+        <v>30104.47689</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6032.772190000001</v>
+        <v>6032.77219</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>10185.86953</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>9213.382700000002</v>
+        <v>9213.3827</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>10510.16138</v>
@@ -1592,142 +1578,162 @@
         <v>39708.47437999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8887.783390000001</v>
+        <v>9019.77511</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8026.44191</v>
+        <v>8677.375039999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7286.828270000001</v>
+        <v>7286.82827</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8870.520060000001</v>
+        <v>9532.966410000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>18809.93226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18826.07166</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7507.854</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6127189.4076</v>
+        <v>6127199.58115</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6827875.418409999</v>
+        <v>6827890.3633</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>7777428.98424</v>
+        <v>7854396.642219999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8935883.969070001</v>
+        <v>9033122.612939999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9716394.466240002</v>
+        <v>9843249.207560001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>11090620.06935</v>
+        <v>11140911.78044</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11788009.19739</v>
+        <v>12482719.66165</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>13216845.14481</v>
+        <v>13759111.02523</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>15903722.36599</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>19498546.23491</v>
+        <v>19516189.61473</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>23349441.35262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23445046.94102</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>27186002.502</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2596319.22918</v>
+        <v>2596341.79822</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2870511.23657</v>
+        <v>2871723.50633</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3367309.596650001</v>
+        <v>3382188.96412</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3759669.53493</v>
+        <v>3777305.85366</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4093013.679330001</v>
+        <v>4117061.86226</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4745745.30138</v>
+        <v>4768522.88523</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5053686.52322</v>
+        <v>5287859.116090001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5749841.24655</v>
+        <v>5875292.89411</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6591277.828070001</v>
+        <v>6591277.82807</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8048472.101910001</v>
+        <v>8099900.267680001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>9547662.615549998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9691548.447549999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>10814123.67</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1724423.20144</v>
+        <v>1724465.63273</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1995218.45423</v>
+        <v>1995426.41674</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2328641.28027</v>
+        <v>2321256.1395</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2254694.64864</v>
+        <v>2277948.8317</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2943765.62295</v>
+        <v>3016236.78623</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2988845.36937</v>
+        <v>2995404.9067</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3202736.81811</v>
+        <v>3533609.12453</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3312974.44789</v>
+        <v>3929457.20478</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>5274781.12579</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7007040.685709999</v>
+        <v>6975865.987119999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9240080.58494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9244782.258540001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8778873.721000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1473446.52903</v>
@@ -1736,37 +1742,42 @@
         <v>1555740.50834</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2011565.11381</v>
+        <v>2012352.71658</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2070486.8926</v>
+        <v>2071260.59771</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2165625.90072</v>
+        <v>2169854.40437</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2679028.252110001</v>
+        <v>2695976.41985</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3905173.4089</v>
+        <v>4227413.39305</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3590815.15716</v>
+        <v>3818248.45469</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4361167.33266</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>10128309.86205</v>
+        <v>10187408.64797</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7201054.59148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7275359.17773</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11269383.908</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>27565.37798</v>
@@ -1775,37 +1786,42 @@
         <v>42803.56763</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>42786.11382999999</v>
+        <v>42792.03448</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>76564.98039</v>
+        <v>76570.73756000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>57478.27492</v>
+        <v>57482.01634</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>54094.87409</v>
+        <v>54095.20697</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>68515.90830000001</v>
+        <v>68630.73505</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>88793.51222</v>
+        <v>88828.42096</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>112997.9972</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>133418.36349</v>
+        <v>134037.67611</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>156966.17324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>167807.08233</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>113676.255</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3709.05074</v>
@@ -1826,25 +1842,30 @@
         <v>10737.3289</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>17947.73449</v>
+        <v>19322.49994</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2477.72783</v>
+        <v>92402.32781</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>38288.52</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>45367.37032</v>
+        <v>45367.37032000001</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>139636.16059</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>104783.563</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>176810.30924</v>
@@ -1853,37 +1874,42 @@
         <v>145478.57992</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>143263.21312</v>
+        <v>143407.20212</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>194756.48758</v>
+        <v>194992.80752</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>174941.85423</v>
+        <v>177155.78907</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>258426.37236</v>
+        <v>260621.07512</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>317990.62627</v>
+        <v>352218.82276</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>376705.30173</v>
+        <v>459617.3859299999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>616650.36121</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1038778.54682</v>
+        <v>1040878.15107</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1260778.89974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1265530.47558</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1038402.023</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>19402.53198</v>
@@ -1898,31 +1924,36 @@
         <v>21381.31906</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>23268.46905</v>
+        <v>23275.84406</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>26687.25615</v>
+        <v>26691.38069</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>23015.12327</v>
+        <v>23275.47617</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>17419.24874</v>
+        <v>21320.01214</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>29320.05178</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>67867.60893</v>
+        <v>67888.00243000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>34333.68599000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>34490.38583</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>36090.029</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>29674.60522</v>
@@ -1931,37 +1962,42 @@
         <v>21135.18617</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>47949.54698000001</v>
+        <v>48190.20725</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>32536.01806</v>
+        <v>32743.13781</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>45728.81278999999</v>
+        <v>46409.07072</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>57879.70181999999</v>
+        <v>58054.00119</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>44777.95475</v>
+        <v>47942.35104</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>71772.72012</v>
+        <v>78675.28586</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>114269.14518</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>102383.0478</v>
+        <v>102687.28658</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>110542.4104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>111816.71185</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>117739.096</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>11419.35132</v>
@@ -1970,79 +2006,89 @@
         <v>27697.21914</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>32339.76918</v>
+        <v>32398.44522</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>24013.71071</v>
+        <v>24047.34849</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>19043.66544</v>
+        <v>19839.71922</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>16411.94967</v>
+        <v>16503.66518</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>33409.59475</v>
+        <v>133922.68854</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>25635.28948</v>
+        <v>25667.31251</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>32133.70521</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>110857.17675</v>
+        <v>110874.52916</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>119307.08998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>119548.42459</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>135852.678</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>620202.9576000001</v>
+        <v>620202.9576000002</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>642377.4120700001</v>
+        <v>642377.41207</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>980763.9391699999</v>
+        <v>980774.9060799999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>689044.5364800001</v>
+        <v>689057.41883</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1132859.76836</v>
+        <v>1132928.35334</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1407305.93072</v>
+        <v>1420400.16796</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2435980.43892</v>
+        <v>2577757.78904</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1887668.15418</v>
+        <v>1925905.63718</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2221020.10619</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7380338.201129999</v>
+        <v>7434385.65998</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3837084.57194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3878655.45967</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8125468.845</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2412.886409999999</v>
+        <v>2412.88641</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>5108.72507</v>
@@ -2063,7 +2109,7 @@
         <v>6032.28393</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>11312.2911</v>
+        <v>12190.84285</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>7685.94227</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24677.0518</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>24017.045</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>815.4955600000001</v>
@@ -2102,7 +2153,7 @@
         <v>558.44819</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>200.92925</v>
+        <v>211.10984</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>292.05986</v>
@@ -2111,91 +2162,106 @@
         <v>1661.35781</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>484.60329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>519.81157</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>2367.811</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>581433.9629800001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>647471.4443499999</v>
+        <v>647471.44435</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>707853.2041799999</v>
+        <v>708180.59408</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1021764.93115</v>
+        <v>1022042.91927</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>707464.3831900001</v>
+        <v>707922.93888</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>842524.2999300001</v>
+        <v>843913.0553700001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>956945.29603</v>
+        <v>997752.29839</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1108829.98251</v>
+        <v>1113430.11961</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1188509.44376</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1231853.63734</v>
+        <v>1233844.06285</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1517243.94451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1532677.61392</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1570986.563</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>947121.10461</v>
+        <v>947121.1046099999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>889753.7593399999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1285954.08088</v>
+        <v>1286808.00383</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>949036.0825199999</v>
+        <v>950488.73821</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1712121.07287</v>
+        <v>1715012.62938</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1824725.21852</v>
+        <v>1838372.92563</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3188450.33048</v>
+        <v>3433804.74873</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2771961.147390001</v>
+        <v>2873473.73689</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>2997386.82696</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8927747.694530001</v>
+        <v>9022385.92966</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5103740.123040001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5186073.86158</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9341475.075999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>24088.75993</v>
@@ -2204,97 +2270,107 @@
         <v>15247.16233</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>20887.32084</v>
+        <v>20998.83418</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>19456.42225</v>
+        <v>19644.75367</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>19281.68461</v>
+        <v>19426.27654</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>25370.84788</v>
+        <v>25595.58499</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>26083.55384</v>
+        <v>26195.91539</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>25478.55334</v>
+        <v>25754.02399</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>34878.54509000001</v>
+        <v>34878.54509</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>74944.08572</v>
+        <v>74971.48318</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>57628.19654</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>58632.94868</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>56233.479</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>106252.83086</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>85521.62341</v>
+        <v>85521.62341000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>76708.09309000001</v>
+        <v>77320.73049000002</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>93655.51697</v>
+        <v>94903.29613</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>133336.60949</v>
+        <v>135100.13262</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>126852.04272</v>
+        <v>127269.05973</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>247418.46075</v>
+        <v>262006.83037</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>282659.8936799999</v>
+        <v>296667.2092</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>202805.32669</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>360065.7010700001</v>
+        <v>363730.47046</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>493069.58282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>495147.13515</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>276474.584</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>7178.46672</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2663.03942</v>
+        <v>2663.039420000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>32174.35041</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>8671.93296</v>
+        <v>8671.932959999998</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6769.358720000001</v>
+        <v>7146.09446</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9003.521219999999</v>
+        <v>9038.421609999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9377.708209999999</v>
+        <v>13677.70821</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>12178.0288</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>29005.83878</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>63035.711</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>622645.51356</v>
@@ -2321,37 +2402,42 @@
         <v>590016.96528</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>949507.32684</v>
+        <v>949559.42865</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>586885.83615</v>
+        <v>586899.70727</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1268731.35151</v>
+        <v>1269010.29197</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1441070.29356</v>
+        <v>1453831.27339</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2674295.04359</v>
+        <v>2889141.35374</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2121309.15798</v>
+        <v>2161362.47306</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2455465.71231</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8074925.417380001</v>
+        <v>8165447.577469999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4118072.49238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4191063.06822</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8497677.188999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>874.66273</v>
@@ -2360,13 +2446,13 @@
         <v>891.2732099999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>7074.815740000001</v>
+        <v>7074.81574</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>7506.166679999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3084.58696</v>
+        <v>3131.84615</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>4796.82619</v>
@@ -2375,7 +2461,7 @@
         <v>7704.15327</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>10718.37206</v>
+        <v>11534.56294</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>8452.898740000001</v>
@@ -2384,13 +2470,18 @@
         <v>21303.76745</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>24151.90864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>24170.67937</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>36174.652</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>560.2863100000001</v>
@@ -2405,7 +2496,7 @@
         <v>1765.16394</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>91.49478999999999</v>
+        <v>91.49479000000001</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>175.14507</v>
@@ -2423,13 +2514,18 @@
         <v>588.74778</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>42.09087</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>43.05599</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>11.861</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>185520.5845</v>
@@ -2438,76 +2534,86 @@
         <v>194513.48945</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>199486.35012</v>
+        <v>199564.02052</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>231095.04357</v>
+        <v>231097.71756</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>280825.98679</v>
+        <v>281106.49285</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>217456.54188</v>
+        <v>217666.61465</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>223435.66105</v>
+        <v>234943.03798</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>319610.96187</v>
+        <v>365971.25924</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>276840.96931</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>377246.59702</v>
+        <v>377670.50521</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>381770.01301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>388011.13539</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>411867.6</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>831139.39806</v>
+        <v>831139.3980599999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>705865.9198299999</v>
+        <v>705865.91983</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1064122.15947</v>
+        <v>1065952.49669</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1165021.1006</v>
+        <v>1168544.26099</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1218392.55328</v>
+        <v>1221963.31884</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1607117.04506</v>
+        <v>1617235.07121</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1930187.34345</v>
+        <v>2011500.9891</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2303259.36819</v>
+        <v>2332853.17792</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2969498.90246</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4725553.424889999</v>
+        <v>4740329.16138</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5305644.29973</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5358049.78687</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4690602.942</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>718618.1591599999</v>
@@ -2516,37 +2622,42 @@
         <v>618187.59126</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>909418.3069</v>
+        <v>911248.64412</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1128383.35296</v>
+        <v>1131906.51334</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1096427.41219</v>
+        <v>1099997.1219</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1548076.39038</v>
+        <v>1556305.91204</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1840802.01519</v>
+        <v>1920608.9696</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2224853.25736</v>
+        <v>2254232.79141</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2836032.98718</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4477177.726890001</v>
+        <v>4490936.06035</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5025317.1851</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5075191.29959</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4414576.811</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>112521.2389</v>
@@ -2558,112 +2669,127 @@
         <v>154703.85257</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>36637.74764</v>
+        <v>36637.74765</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>121965.14109</v>
+        <v>121966.19694</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>59040.65467999999</v>
+        <v>60929.15917</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>89385.32825999999</v>
+        <v>90892.01949999998</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>78406.11083000001</v>
+        <v>78620.38651</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>133465.91528</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>248375.698</v>
+        <v>249393.10103</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>280327.11463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>282858.4872800001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>276026.131</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1419609.2278</v>
+        <v>1419651.65909</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1955339.2834</v>
+        <v>1955547.24591</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1990130.15373</v>
+        <v>1980848.35556</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2211124.35812</v>
+        <v>2230176.43021</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2178877.89752</v>
+        <v>2249115.24238</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2236031.3579</v>
+        <v>2235773.32971</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1989272.55308</v>
+        <v>2315716.77975</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1828569.08947</v>
+        <v>2541378.74466</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3669062.72903</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3482049.42834</v>
+        <v>3400559.54405</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6031750.753649999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5976017.787819999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6016179.611</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>293403.14553</v>
+        <v>293403.88302</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>321143.94656</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>495929.9628400001</v>
+        <v>496558.19185</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>452806.24399</v>
+        <v>454150.05881</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>583318.5014900001</v>
+        <v>590617.69887</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>491137.5095</v>
+        <v>494023.5535800001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>641727.65347</v>
+        <v>697866.13217</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>864685.16586</v>
+        <v>890694.1786600001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1162782.57123</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1204417.97369</v>
+        <v>1211771.62798</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1254067.06072</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1292939.2267</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1529400.218</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>10662.32082</v>
@@ -2672,7 +2798,7 @@
         <v>6614.21027</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>12544.5402</v>
+        <v>12688.29611</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>7479.50966</v>
@@ -2681,67 +2807,77 @@
         <v>19052.43123</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>14998.39578</v>
+        <v>15013.69806</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>23593.95701</v>
+        <v>23799.0082</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>22230.79233</v>
+        <v>23232.66893</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>21702.02648</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>23759.15737</v>
+        <v>25159.54973</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>36999.24286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>45777.88614999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>24639.325</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>282740.82471</v>
+        <v>282741.5622</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>314529.73629</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>483385.42264</v>
+        <v>483869.89574</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>445326.7343300001</v>
+        <v>446670.54915</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>564266.0702599999</v>
+        <v>571565.2676400001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>476139.11372</v>
+        <v>479009.85552</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>618133.69646</v>
+        <v>674067.1239700001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>842454.37353</v>
+        <v>867461.50973</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1141080.54475</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1180658.81632</v>
+        <v>1186612.07825</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1217067.81786</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1247161.34055</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1504760.893</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>232543.7852</v>
@@ -2750,76 +2886,86 @@
         <v>270418.21883</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1406167.69228</v>
+        <v>1406421.54231</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>410005.81881</v>
+        <v>411169.22266</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>343582.78541</v>
+        <v>345436.7939099999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>573365.55122</v>
+        <v>582396.8891800001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>544713.16761</v>
+        <v>611953.9166900001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1114215.1672</v>
+        <v>1129938.72994</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>944161.5396099999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1288815.72878</v>
+        <v>1300846.14303</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>786968.6782000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>809408.5544</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1131315.262</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>14877.99361</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6959.25615</v>
+        <v>6959.256149999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>7483.638380000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9883.32559</v>
+        <v>9883.325590000002</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>14593.141</v>
+        <v>14681.92918</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>13802.07134</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>12433.18221</v>
+        <v>12490.92085</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>15672.99561</v>
+        <v>16408.04637</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>19453.4131</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>21961.49148</v>
+        <v>22001.10334</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>24830.10458</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>25304.75932</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>24956.806</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>12680.22893</v>
@@ -2828,37 +2974,42 @@
         <v>17488.62649</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>21321.82374</v>
+        <v>21478.03535</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>15361.02577</v>
+        <v>15518.4863</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>20935.35594</v>
+        <v>20954.39942</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>22987.73351</v>
+        <v>23366.77487</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>28128.94936</v>
+        <v>30939.62248000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>37420.39348999999</v>
+        <v>37533.55141</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>42102.49321</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>53705.31393</v>
+        <v>54290.50234000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>58137.20388</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>58345.472</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>75550.3</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>204985.56266</v>
@@ -2867,151 +3018,169 @@
         <v>245970.33619</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1377362.23016</v>
+        <v>1377459.86858</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>384761.4674500001</v>
+        <v>385767.41077</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>308054.28847</v>
+        <v>309800.4653100001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>536575.7463699999</v>
+        <v>545228.0429700001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>504151.03604</v>
+        <v>568523.37336</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1061121.7781</v>
+        <v>1075997.13216</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>882605.6333000001</v>
+        <v>882605.6333</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1213148.92337</v>
+        <v>1224554.53735</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>704001.36974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>725758.32308</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1030808.156</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1480468.58813</v>
+        <v>1480511.75691</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2006065.01113</v>
+        <v>2006272.97364</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1079892.42429</v>
+        <v>1070985.0051</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2253924.7833</v>
+        <v>2273157.26636</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2418613.6136</v>
+        <v>2494296.14734</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2153803.31618</v>
+        <v>2147399.99411</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2086287.03894</v>
+        <v>2401628.99523</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1579039.08813</v>
+        <v>2302134.19338</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3887683.76065</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3397651.67325</v>
+        <v>3311485.029</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6498849.136169999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6459548.46012</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6414264.567</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>318870.60225</v>
+        <v>318879.23931</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>432306.87281</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>504893.8029899999</v>
+        <v>504941.80853</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>477459.4987599999</v>
+        <v>477599.91766</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>532539.2963</v>
+        <v>533324.35904</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>540849.8085700001</v>
+        <v>542032.0737599999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>568042.30602</v>
+        <v>638049.3214199999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>573214.78409</v>
+        <v>700685.95293</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>859169.8255999999</v>
+        <v>859169.8256</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1100320.04851</v>
+        <v>1105230.74043</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1671723.11155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1680859.25057</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1696408.987</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1161597.98588</v>
+        <v>1161632.5176</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1573758.13832</v>
+        <v>1573966.10083</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>574998.6213000001</v>
+        <v>566043.19657</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1776465.28454</v>
+        <v>1795557.3487</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1886074.3173</v>
+        <v>1960971.7883</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1612953.50761</v>
+        <v>1605367.92035</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1518244.73292</v>
+        <v>1763579.67381</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1005824.30404</v>
+        <v>1601448.24045</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3028513.93505</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2297331.62474</v>
+        <v>2206254.28857</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4827126.02462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4778689.20955</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4717855.58</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>20070</v>
+        <v>20071</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>20139</v>
+        <v>20141</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>20294</v>
+        <v>20306</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>19320</v>
+        <v>19344</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>18436</v>
+        <v>18482</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>18238</v>
+        <v>18329</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>18328</v>
+        <v>18535</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>18864</v>
+        <v>19082</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>20131</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>19094</v>
+        <v>21682</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>19573</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>23032</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>24637</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>